--- a/Optimization case study - JoH/ressources/crossing.xlsx
+++ b/Optimization case study - JoH/ressources/crossing.xlsx
@@ -47,7 +47,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,30 +71,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Palatino Linotype"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Palatino Linotype"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Palatino Linotype"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Palatino Linotype"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,7 +131,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -130,19 +143,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,7 +444,7 @@
   <dimension ref="A2:N51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1283,1012 +1300,1014 @@
         <v>0.40027269999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C29" s="7" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="1:14" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="9">
+      <c r="B30" s="10"/>
+      <c r="C30" s="11">
         <v>1</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="11">
         <v>2</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="11">
         <v>3</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="11">
         <v>4</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="11">
         <v>5</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="11">
         <v>6</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="11">
         <v>7</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="11">
         <v>8</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30" s="11">
         <v>9</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="11">
         <v>1</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="13">
         <f>100*(C3-$C3)</f>
         <v>0</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="13">
         <f t="shared" ref="D31:L31" si="2">100*(D3-$C3)</f>
         <v>-0.27909000000000406</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="13">
         <f t="shared" si="2"/>
         <v>-0.7570900000000047</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="13">
         <f t="shared" si="2"/>
         <v>-0.68896000000000512</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="13">
         <f t="shared" si="2"/>
         <v>-0.67580000000000418</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="13">
         <f t="shared" si="2"/>
         <v>-0.70561000000000096</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="13">
         <f t="shared" si="2"/>
         <v>-3.1360000000000001</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="13">
         <f t="shared" si="2"/>
         <v>-4.3969300000000047</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31" s="13">
         <f t="shared" si="2"/>
         <v>-1.3230900000000045</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L31" s="13">
         <f t="shared" si="2"/>
         <v>-1.9566700000000048</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="11">
         <v>2</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="13">
         <f>100*(C4-$D4)</f>
         <v>-0.16683000000000114</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="13">
         <f t="shared" ref="D32:L32" si="3">100*(D4-$D4)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="13">
         <f t="shared" si="3"/>
         <v>-0.57686000000000126</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="13">
         <f t="shared" si="3"/>
         <v>-0.33449999999999869</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="13">
         <f t="shared" si="3"/>
         <v>-0.629780000000002</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="13">
         <f t="shared" si="3"/>
         <v>-0.61346999999999929</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="13">
         <f t="shared" si="3"/>
         <v>-2.1833900000000019</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="13">
         <f t="shared" si="3"/>
         <v>-3.6099199999999998</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32" s="13">
         <f t="shared" si="3"/>
         <v>-0.89841999999999977</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="13">
         <f t="shared" si="3"/>
         <v>-1.1450999999999989</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="11">
         <v>3</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="13">
         <f>100*(C5-$E5)</f>
         <v>-0.36015000000000352</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="13">
         <f t="shared" ref="D33:L33" si="4">100*(D5-$E5)</f>
         <v>-0.16708000000000278</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="13">
         <f t="shared" si="4"/>
         <v>-0.48085999999999962</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="13">
         <f t="shared" si="4"/>
         <v>-0.40103000000000222</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="13">
         <f t="shared" si="4"/>
         <v>-0.33824000000000076</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="13">
         <f t="shared" si="4"/>
         <v>-1.7563300000000004</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="13">
         <f t="shared" si="4"/>
         <v>-2.9249000000000027</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K33" s="13">
         <f t="shared" si="4"/>
         <v>-0.10469000000000173</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L33" s="13">
         <f t="shared" si="4"/>
         <v>-0.53155000000000285</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="11">
         <v>4</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="13">
         <f>100*(C6-$F6)</f>
         <v>-0.30458999999999903</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="13">
         <f t="shared" ref="D34:L34" si="5">100*(D6-$F6)</f>
         <v>-0.21606999999999599</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="13">
         <f t="shared" si="5"/>
         <v>-0.36995999999999696</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="13">
         <f t="shared" si="5"/>
         <v>-0.25012999999999841</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="13">
         <f t="shared" si="5"/>
         <v>-0.2150199999999991</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="13">
         <f t="shared" si="5"/>
         <v>-1.1535399999999973</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34" s="13">
         <f t="shared" si="5"/>
         <v>-2.6259299999999985</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34" s="13">
         <f t="shared" si="5"/>
         <v>-0.38449999999999873</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L34" s="13">
         <f t="shared" si="5"/>
         <v>-0.61496999999999802</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="11">
         <v>5</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="13">
         <f>100*(C7-$G7)</f>
         <v>-0.61364999999999892</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="13">
         <f t="shared" ref="D35:L35" si="6">100*(D7-$G7)</f>
         <v>-0.47828999999999788</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="13">
         <f t="shared" si="6"/>
         <v>-0.79315999999999831</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="13">
         <f t="shared" si="6"/>
         <v>-0.49350000000000227</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="13">
         <f t="shared" si="6"/>
         <v>7.1999999999849962E-4</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I35" s="13">
         <f t="shared" si="6"/>
         <v>-1.2284899999999987</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J35" s="13">
         <f t="shared" si="6"/>
         <v>-2.3101700000000003</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K35" s="13">
         <f t="shared" si="6"/>
         <v>-0.45833000000000124</v>
       </c>
-      <c r="L35" s="10">
+      <c r="L35" s="13">
         <f t="shared" si="6"/>
         <v>-0.66609000000000251</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="11">
         <v>6</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="13">
         <f>100*(C8-$H8)</f>
         <v>-1.157809999999998</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="13">
         <f t="shared" ref="D36:L36" si="7">100*(D8-$H8)</f>
         <v>-0.79859999999999931</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="13">
         <f t="shared" si="7"/>
         <v>-1.0626000000000024</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="13">
         <f t="shared" si="7"/>
         <v>-0.81666000000000238</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="13">
         <f t="shared" si="7"/>
         <v>-3.9650000000002183E-2</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="13">
         <f t="shared" si="7"/>
         <v>-0.79744999999999955</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="13">
         <f t="shared" si="7"/>
         <v>-1.5910099999999983</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="13">
         <f t="shared" si="7"/>
         <v>-0.34839999999999871</v>
       </c>
-      <c r="L36" s="10">
+      <c r="L36" s="13">
         <f t="shared" si="7"/>
         <v>-0.38128000000000051</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="11">
         <v>7</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="13">
         <f>100*(C9-$I9)</f>
         <v>-3.6202600000000027</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="13">
         <f t="shared" ref="D37:L37" si="8">100*(D9-$I9)</f>
         <v>-3.0912700000000015</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="13">
         <f t="shared" si="8"/>
         <v>-2.6002200000000029</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="13">
         <f t="shared" si="8"/>
         <v>-2.5350900000000012</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="13">
         <f t="shared" si="8"/>
         <v>-1.5203000000000022</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H37" s="13">
         <f t="shared" si="8"/>
         <v>-1.4623700000000017</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="13">
         <f t="shared" si="8"/>
         <v>-0.71973000000000176</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K37" s="13">
         <f t="shared" si="8"/>
         <v>-1.1342300000000027</v>
       </c>
-      <c r="L37" s="10">
+      <c r="L37" s="13">
         <f t="shared" si="8"/>
         <v>-1.0635400000000017</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="11">
         <v>8</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="13">
         <f>100*(C10-$J10)</f>
         <v>-6.4291099999999988</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="13">
         <f t="shared" ref="D38:L38" si="9">100*(D10-$J10)</f>
         <v>-5.3082699999999985</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="13">
         <f t="shared" si="9"/>
         <v>-4.9961799999999998</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="13">
         <f t="shared" si="9"/>
         <v>-4.6192300000000017</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="13">
         <f t="shared" si="9"/>
         <v>-2.8234800000000004</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="13">
         <f t="shared" si="9"/>
         <v>-2.7911299999999972</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" s="13">
         <f t="shared" si="9"/>
         <v>-0.19910999999999679</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J38" s="13">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K38" s="13">
         <f t="shared" si="9"/>
         <v>-2.662359999999997</v>
       </c>
-      <c r="L38" s="10">
+      <c r="L38" s="13">
         <f t="shared" si="9"/>
         <v>-1.6326300000000016</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="11">
         <v>9</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="13">
         <f>100*(C11-$K11)</f>
         <v>-0.91994000000000242</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="13">
         <f t="shared" ref="D39:L39" si="10">100*(D11-$K11)</f>
         <v>-0.67083000000000004</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="13">
         <f t="shared" si="10"/>
         <v>-0.45629000000000364</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="13">
         <f t="shared" si="10"/>
         <v>-0.60894000000000226</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="13">
         <f t="shared" si="10"/>
         <v>-0.3756499999999996</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="13">
         <f t="shared" si="10"/>
         <v>-0.27527999999999997</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39" s="13">
         <f t="shared" si="10"/>
         <v>-0.79143000000000407</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J39" s="13">
         <f t="shared" si="10"/>
         <v>-1.7059800000000014</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K39" s="13">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L39" s="10">
+      <c r="L39" s="13">
         <f t="shared" si="10"/>
         <v>-0.30355000000000243</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="B40" s="9">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="11">
         <v>10</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="13">
         <f>100*(C12-$L12)</f>
         <v>-1.9034600000000013</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="13">
         <f t="shared" ref="D40:L40" si="11">100*(D12-$L12)</f>
         <v>-1.3932400000000011</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="13">
         <f t="shared" si="11"/>
         <v>-1.2464900000000001</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="13">
         <f t="shared" si="11"/>
         <v>-1.5743000000000007</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="13">
         <f t="shared" si="11"/>
         <v>-0.58272999999999797</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="13">
         <f t="shared" si="11"/>
         <v>-0.48654000000000197</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I40" s="13">
         <f t="shared" si="11"/>
         <v>-0.89614000000000082</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J40" s="13">
         <f t="shared" si="11"/>
         <v>-1.0671600000000003</v>
       </c>
-      <c r="K40" s="10">
+      <c r="K40" s="13">
         <f t="shared" si="11"/>
         <v>-0.47948999999999908</v>
       </c>
-      <c r="L40" s="10">
+      <c r="L40" s="13">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
+    <row r="41" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="9">
+      <c r="B41" s="10"/>
+      <c r="C41" s="11">
         <v>1</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="11">
         <v>2</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="11">
         <v>3</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="11">
         <v>4</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="11">
         <v>5</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="11">
         <v>6</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="11">
         <v>7</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J41" s="11">
         <v>8</v>
       </c>
-      <c r="K41" s="9">
+      <c r="K41" s="11">
         <v>9</v>
       </c>
-      <c r="L41" s="9">
+      <c r="L41" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="11">
         <v>1</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="13">
         <f>100*(C16-$C16)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="13">
         <f t="shared" ref="D42:L42" si="12">100*(D16-$C16)</f>
         <v>-0.30017999999999989</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="13">
         <f t="shared" si="12"/>
         <v>-0.51094999999999891</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="13">
         <f t="shared" si="12"/>
         <v>9.6810000000002727E-2</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="13">
         <f t="shared" si="12"/>
         <v>-0.77915000000000068</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="13">
         <f t="shared" si="12"/>
         <v>-0.85117000000000109</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I42" s="13">
         <f t="shared" si="12"/>
         <v>-3.1631299999999971</v>
       </c>
-      <c r="J42" s="10">
+      <c r="J42" s="13">
         <f t="shared" si="12"/>
         <v>-4.7336500000000008</v>
       </c>
-      <c r="K42" s="10">
+      <c r="K42" s="13">
         <f t="shared" si="12"/>
         <v>-0.85180999999999729</v>
       </c>
-      <c r="L42" s="10">
+      <c r="L42" s="13">
         <f t="shared" si="12"/>
         <v>-1.4164300000000019</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="11">
         <v>2</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="13">
         <f>100*(C17-$D17)</f>
         <v>-5.1899999999999169E-2</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="13">
         <f t="shared" ref="D43:L43" si="13">100*(D17-$D17)</f>
         <v>0</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="13">
         <f t="shared" si="13"/>
         <v>-3.6089999999999733E-2</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="13">
         <f t="shared" si="13"/>
         <v>0.21388999999999991</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="13">
         <f t="shared" si="13"/>
         <v>-0.59752999999999612</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H43" s="13">
         <f t="shared" si="13"/>
         <v>-0.55072999999999928</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I43" s="13">
         <f t="shared" si="13"/>
         <v>-2.1465599999999974</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J43" s="13">
         <f t="shared" si="13"/>
         <v>-3.8076399999999957</v>
       </c>
-      <c r="K43" s="10">
+      <c r="K43" s="13">
         <f t="shared" si="13"/>
         <v>-0.33154999999999712</v>
       </c>
-      <c r="L43" s="10">
+      <c r="L43" s="13">
         <f t="shared" si="13"/>
         <v>-0.66120999999999541</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="11">
         <v>3</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="13">
         <f>100*(C18-$E18)</f>
         <v>-0.42558999999999791</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="13">
         <f t="shared" ref="D44:L44" si="14">100*(D18-$E18)</f>
         <v>-0.64122999999999819</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="13">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="13">
         <f t="shared" si="14"/>
         <v>-0.33069000000000015</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G44" s="13">
         <f t="shared" si="14"/>
         <v>-1.066849999999997</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="13">
         <f t="shared" si="14"/>
         <v>-1.0586700000000004</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I44" s="13">
         <f t="shared" si="14"/>
         <v>-2.1323499999999997</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J44" s="13">
         <f t="shared" si="14"/>
         <v>-4.3513199999999976</v>
       </c>
-      <c r="K44" s="10">
+      <c r="K44" s="13">
         <f t="shared" si="14"/>
         <v>-0.33830999999999722</v>
       </c>
-      <c r="L44" s="10">
+      <c r="L44" s="13">
         <f t="shared" si="14"/>
         <v>-1.1210899999999968</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="9">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="11">
         <v>4</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="13">
         <f>100*(C19-$F19)</f>
         <v>-0.17955000000000054</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="13">
         <f t="shared" ref="D45:L45" si="15">100*(D19-$F19)</f>
         <v>-1.5900000000002024E-2</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="13">
         <f t="shared" si="15"/>
         <v>-0.15391000000000155</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="13">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G45" s="13">
         <f t="shared" si="15"/>
         <v>-0.54422000000000081</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H45" s="13">
         <f t="shared" si="15"/>
         <v>-0.55691999999999964</v>
       </c>
-      <c r="I45" s="10">
+      <c r="I45" s="13">
         <f t="shared" si="15"/>
         <v>-1.9825599999999999</v>
       </c>
-      <c r="J45" s="10">
+      <c r="J45" s="13">
         <f t="shared" si="15"/>
         <v>-3.5867800000000005</v>
       </c>
-      <c r="K45" s="10">
+      <c r="K45" s="13">
         <f t="shared" si="15"/>
         <v>-0.67504999999999926</v>
       </c>
-      <c r="L45" s="10">
+      <c r="L45" s="13">
         <f t="shared" si="15"/>
         <v>-1.0221199999999986</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="8"/>
-      <c r="B46" s="9">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+      <c r="B46" s="11">
         <v>5</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="13">
         <f>100*(C20-$G20)</f>
         <v>0.21445999999999965</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="13">
         <f t="shared" ref="D46:L46" si="16">100*(D20-$G20)</f>
         <v>0.2053399999999983</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="13">
         <f t="shared" si="16"/>
         <v>0.24006999999999779</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="13">
         <f t="shared" si="16"/>
         <v>0.27117999999999864</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="13">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H46" s="13">
         <f t="shared" si="16"/>
         <v>-1.3410000000002587E-2</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I46" s="13">
         <f t="shared" si="16"/>
         <v>-1.7680599999999991</v>
       </c>
-      <c r="J46" s="10">
+      <c r="J46" s="13">
         <f t="shared" si="16"/>
         <v>-3.2012700000000005</v>
       </c>
-      <c r="K46" s="10">
+      <c r="K46" s="13">
         <f t="shared" si="16"/>
         <v>-1.7780000000000573E-2</v>
       </c>
-      <c r="L46" s="10">
+      <c r="L46" s="13">
         <f t="shared" si="16"/>
         <v>-0.53198999999999885</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="8"/>
-      <c r="B47" s="9">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="11">
         <v>6</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="13">
         <f>100*(C21-$H21)</f>
         <v>-0.49466000000000232</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="13">
         <f t="shared" ref="D47:L47" si="17">100*(D21-$H21)</f>
         <v>-0.42342000000000213</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="13">
         <f t="shared" si="17"/>
         <v>-0.62388000000000443</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="13">
         <f t="shared" si="17"/>
         <v>4.2639999999999345E-2</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="13">
         <f t="shared" si="17"/>
         <v>4.3729999999997382E-2</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H47" s="13">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I47" s="10">
+      <c r="I47" s="13">
         <f t="shared" si="17"/>
         <v>-0.91774000000000022</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J47" s="13">
         <f t="shared" si="17"/>
         <v>-1.9125700000000023</v>
       </c>
-      <c r="K47" s="10">
+      <c r="K47" s="13">
         <f t="shared" si="17"/>
         <v>-0.48534000000000077</v>
       </c>
-      <c r="L47" s="10">
+      <c r="L47" s="13">
         <f t="shared" si="17"/>
         <v>-0.40748000000000451</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
+      <c r="B48" s="11">
         <v>7</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="13">
         <f>100*(C22-$I22)</f>
         <v>-1.3968399999999992</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="13">
         <f t="shared" ref="D48:L48" si="18">100*(D22-$I22)</f>
         <v>-1.1250599999999999</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="13">
         <f t="shared" si="18"/>
         <v>-0.63935999999999993</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="13">
         <f t="shared" si="18"/>
         <v>-0.58069000000000037</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G48" s="13">
         <f t="shared" si="18"/>
         <v>-0.62487999999999988</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H48" s="13">
         <f t="shared" si="18"/>
         <v>-0.57947999999999888</v>
       </c>
-      <c r="I48" s="10">
+      <c r="I48" s="13">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="J48" s="10">
+      <c r="J48" s="13">
         <f t="shared" si="18"/>
         <v>-1.016220000000001</v>
       </c>
-      <c r="K48" s="10">
+      <c r="K48" s="13">
         <f t="shared" si="18"/>
         <v>-0.54525000000000268</v>
       </c>
-      <c r="L48" s="10">
+      <c r="L48" s="13">
         <f t="shared" si="18"/>
         <v>2.0179999999997422E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="8"/>
-      <c r="B49" s="9">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" s="11">
         <v>8</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="13">
         <f>100*(C23-$J23)</f>
         <v>-3.5537700000000005</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="13">
         <f t="shared" ref="D49:L49" si="19">100*(D23-$J23)</f>
         <v>-3.0130199999999996</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="13">
         <f t="shared" si="19"/>
         <v>-2.2248099999999993</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="13">
         <f t="shared" si="19"/>
         <v>-1.9187499999999968</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G49" s="13">
         <f t="shared" si="19"/>
         <v>-1.3291499999999956</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H49" s="13">
         <f t="shared" si="19"/>
         <v>-1.2869799999999987</v>
       </c>
-      <c r="I49" s="10">
+      <c r="I49" s="13">
         <f t="shared" si="19"/>
         <v>9.5390000000000752E-2</v>
       </c>
-      <c r="J49" s="10">
+      <c r="J49" s="13">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="K49" s="10">
+      <c r="K49" s="13">
         <f t="shared" si="19"/>
         <v>-1.3716499999999965</v>
       </c>
-      <c r="L49" s="10">
+      <c r="L49" s="13">
         <f t="shared" si="19"/>
         <v>0.15937000000000312</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
-      <c r="B50" s="9">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+      <c r="B50" s="11">
         <v>9</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="13">
         <f>100*(C24-$K24)</f>
         <v>0.24101999999999735</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="13">
         <f t="shared" ref="D50:L50" si="20">100*(D24-$K24)</f>
         <v>-1.7840000000002298E-2</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="13">
         <f t="shared" si="20"/>
         <v>0.21253999999999995</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="13">
         <f t="shared" si="20"/>
         <v>0.41856000000000115</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G50" s="13">
         <f t="shared" si="20"/>
         <v>-0.2141800000000027</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H50" s="13">
         <f t="shared" si="20"/>
         <v>-0.20968000000000098</v>
       </c>
-      <c r="I50" s="10">
+      <c r="I50" s="13">
         <f t="shared" si="20"/>
         <v>-0.72219000000000033</v>
       </c>
-      <c r="J50" s="10">
+      <c r="J50" s="13">
         <f t="shared" si="20"/>
         <v>-2.223940000000002</v>
       </c>
-      <c r="K50" s="10">
+      <c r="K50" s="13">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L50" s="10">
+      <c r="L50" s="13">
         <f t="shared" si="20"/>
         <v>6.1719999999998443E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="8"/>
-      <c r="B51" s="9">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="B51" s="11">
         <v>10</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="13">
         <f>100*(C25-$L25)</f>
         <v>-0.4362400000000044</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="13">
         <f t="shared" ref="D51:L51" si="21">100*(D25-$L25)</f>
         <v>-0.26107000000000213</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="13">
         <f t="shared" si="21"/>
         <v>-0.11518000000000361</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="13">
         <f t="shared" si="21"/>
         <v>-0.17854000000000481</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="13">
         <f t="shared" si="21"/>
         <v>6.1239999999995742E-2</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H51" s="13">
         <f t="shared" si="21"/>
         <v>5.3969999999997631E-2</v>
       </c>
-      <c r="I51" s="10">
+      <c r="I51" s="13">
         <f t="shared" si="21"/>
         <v>-0.76772000000000507</v>
       </c>
-      <c r="J51" s="10">
+      <c r="J51" s="13">
         <f t="shared" si="21"/>
         <v>-1.0851900000000025</v>
       </c>
-      <c r="K51" s="10">
+      <c r="K51" s="13">
         <f t="shared" si="21"/>
         <v>-7.0340000000002068E-2</v>
       </c>
-      <c r="L51" s="10">
+      <c r="L51" s="13">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
@@ -2511,7 +2530,7 @@
   <dimension ref="A2:N51"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3367,1012 +3386,1014 @@
         <v>0.4316123</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C29" s="7" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="1:14" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="9">
+      <c r="B30" s="10"/>
+      <c r="C30" s="11">
         <v>1</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="11">
         <v>2</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="11">
         <v>3</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="11">
         <v>4</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="11">
         <v>5</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="11">
         <v>6</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="11">
         <v>7</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="11">
         <v>8</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30" s="11">
         <v>9</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="11">
         <v>1</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="13">
         <f>100*(C3-$C3)</f>
         <v>0</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="13">
         <f t="shared" ref="D31:L31" si="2">100*(D3-$C3)</f>
         <v>-0.56191999999999909</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="13">
         <f t="shared" si="2"/>
         <v>-0.92302000000000217</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="13">
         <f t="shared" si="2"/>
         <v>-1.3918600000000003</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="13">
         <f t="shared" si="2"/>
         <v>-0.87350999999999956</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="13">
         <f t="shared" si="2"/>
         <v>-1.8089000000000022</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="13">
         <f t="shared" si="2"/>
         <v>-3.9180500000000009</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="13">
         <f t="shared" si="2"/>
         <v>-5.356309999999997</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31" s="13">
         <f t="shared" si="2"/>
         <v>-2.2472900000000018</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L31" s="13">
         <f t="shared" si="2"/>
         <v>-2.6643799999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="11">
         <v>2</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="13">
         <f>100*(C4-$D4)</f>
         <v>-0.85986999999999592</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="13">
         <f t="shared" ref="D32:L32" si="3">100*(D4-$D4)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="13">
         <f t="shared" si="3"/>
         <v>-0.45089999999999852</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="13">
         <f t="shared" si="3"/>
         <v>-0.91696</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="13">
         <f t="shared" si="3"/>
         <v>-0.62918999999999614</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="13">
         <f t="shared" si="3"/>
         <v>-1.199629999999996</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="13">
         <f t="shared" si="3"/>
         <v>-2.4761399999999991</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="13">
         <f t="shared" si="3"/>
         <v>-4.0553899999999974</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32" s="13">
         <f t="shared" si="3"/>
         <v>-1.3789499999999955</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="13">
         <f t="shared" si="3"/>
         <v>-2.1940799999999983</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="11">
         <v>3</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="13">
         <f>100*(C5-$E5)</f>
         <v>-1.2824899999999972</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="13">
         <f t="shared" ref="D33:L33" si="4">100*(D5-$E5)</f>
         <v>-0.71655999999999942</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="13">
         <f t="shared" si="4"/>
         <v>-0.6492999999999971</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="13">
         <f t="shared" si="4"/>
         <v>-0.80903999999999976</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="13">
         <f t="shared" si="4"/>
         <v>-1.32525</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="13">
         <f t="shared" si="4"/>
         <v>-2.0164799999999983</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="13">
         <f t="shared" si="4"/>
         <v>-3.6842799999999953</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K33" s="13">
         <f t="shared" si="4"/>
         <v>-0.59759999999999813</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L33" s="13">
         <f t="shared" si="4"/>
         <v>-1.7233200000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="11">
         <v>4</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="13">
         <f>100*(C6-$F6)</f>
         <v>-1.1862299999999992</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="13">
         <f t="shared" ref="D34:L34" si="5">100*(D6-$F6)</f>
         <v>-0.32902000000000209</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="13">
         <f t="shared" si="5"/>
         <v>-0.26516000000000317</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="13">
         <f t="shared" si="5"/>
         <v>-0.20672999999999941</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="13">
         <f t="shared" si="5"/>
         <v>-0.80749999999999988</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="13">
         <f t="shared" si="5"/>
         <v>-1.3025000000000009</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34" s="13">
         <f t="shared" si="5"/>
         <v>-2.7963400000000025</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34" s="13">
         <f t="shared" si="5"/>
         <v>-0.34358999999999917</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L34" s="13">
         <f t="shared" si="5"/>
         <v>-1.5683300000000011</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="11">
         <v>5</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="13">
         <f>100*(C7-$G7)</f>
         <v>-0.77656999999999865</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="13">
         <f t="shared" ref="D35:L35" si="6">100*(D7-$G7)</f>
         <v>-0.49510999999999861</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="13">
         <f t="shared" si="6"/>
         <v>-0.4325200000000029</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="13">
         <f t="shared" si="6"/>
         <v>-0.29180000000000317</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="13">
         <f t="shared" si="6"/>
         <v>-0.46497000000000344</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I35" s="13">
         <f t="shared" si="6"/>
         <v>-1.0357100000000008</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J35" s="13">
         <f t="shared" si="6"/>
         <v>-2.5388500000000036</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K35" s="13">
         <f t="shared" si="6"/>
         <v>-0.39530999999999872</v>
       </c>
-      <c r="L35" s="10">
+      <c r="L35" s="13">
         <f t="shared" si="6"/>
         <v>-1.0594800000000015</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="11">
         <v>6</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="13">
         <f>100*(C8-$H8)</f>
         <v>-1.4629500000000017</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="13">
         <f t="shared" ref="D36:L36" si="7">100*(D8-$H8)</f>
         <v>-0.98829000000000278</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="13">
         <f t="shared" si="7"/>
         <v>-0.98811000000000315</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="13">
         <f t="shared" si="7"/>
         <v>-0.72250000000000369</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="13">
         <f t="shared" si="7"/>
         <v>-0.5954700000000035</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="13">
         <f t="shared" si="7"/>
         <v>-0.7727700000000004</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="13">
         <f t="shared" si="7"/>
         <v>-1.7465700000000028</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="13">
         <f t="shared" si="7"/>
         <v>-0.65095000000000014</v>
       </c>
-      <c r="L36" s="10">
+      <c r="L36" s="13">
         <f t="shared" si="7"/>
         <v>-0.93035000000000201</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="11">
         <v>7</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="13">
         <f>100*(C9-$I9)</f>
         <v>-4.6095999999999968</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="13">
         <f t="shared" ref="D37:L37" si="8">100*(D9-$I9)</f>
         <v>-3.3457499999999971</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="13">
         <f t="shared" si="8"/>
         <v>-3.2961499999999977</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="13">
         <f t="shared" si="8"/>
         <v>-2.0807399999999978</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="13">
         <f t="shared" si="8"/>
         <v>-2.7041499999999994</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H37" s="13">
         <f t="shared" si="8"/>
         <v>-1.2792999999999999</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="13">
         <f t="shared" si="8"/>
         <v>-1.2114199999999964</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K37" s="13">
         <f t="shared" si="8"/>
         <v>-1.2938899999999975</v>
       </c>
-      <c r="L37" s="10">
+      <c r="L37" s="13">
         <f t="shared" si="8"/>
         <v>-1.4977499999999977</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="11">
         <v>8</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="13">
         <f>100*(C10-$J10)</f>
         <v>-7.530599999999998</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="13">
         <f t="shared" ref="D38:L38" si="9">100*(D10-$J10)</f>
         <v>-5.9486600000000003</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="13">
         <f t="shared" si="9"/>
         <v>-5.6623499999999991</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="13">
         <f t="shared" si="9"/>
         <v>-4.2099299999999946</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="13">
         <f t="shared" si="9"/>
         <v>-5.0640599999999978</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="13">
         <f t="shared" si="9"/>
         <v>-2.5492699999999981</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" s="13">
         <f t="shared" si="9"/>
         <v>-0.69089999999999985</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J38" s="13">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K38" s="13">
         <f t="shared" si="9"/>
         <v>-2.8291499999999967</v>
       </c>
-      <c r="L38" s="10">
+      <c r="L38" s="13">
         <f t="shared" si="9"/>
         <v>-1.7844699999999991</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="11">
         <v>9</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="13">
         <f>100*(C11-$K11)</f>
         <v>-1.9796499999999995</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="13">
         <f t="shared" ref="D39:L39" si="10">100*(D11-$K11)</f>
         <v>-1.4167599999999947</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="13">
         <f t="shared" si="10"/>
         <v>-0.88351999999999875</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="13">
         <f t="shared" si="10"/>
         <v>-0.62278999999999529</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="13">
         <f t="shared" si="10"/>
         <v>-0.96327999999999969</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="13">
         <f t="shared" si="10"/>
         <v>-1.1756299999999997</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39" s="13">
         <f t="shared" si="10"/>
         <v>-0.9711499999999984</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J39" s="13">
         <f t="shared" si="10"/>
         <v>-2.5386999999999995</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K39" s="13">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L39" s="10">
+      <c r="L39" s="13">
         <f t="shared" si="10"/>
         <v>-1.4571399999999957</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="B40" s="9">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="11">
         <v>10</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="13">
         <f>100*(C12-$L12)</f>
         <v>-2.454820000000002</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="13">
         <f t="shared" ref="D40:L40" si="11">100*(D12-$L12)</f>
         <v>-1.8827299999999991</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="13">
         <f t="shared" si="11"/>
         <v>-1.4164100000000013</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="13">
         <f t="shared" si="11"/>
         <v>-1.6324899999999976</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="13">
         <f t="shared" si="11"/>
         <v>-1.5888100000000016</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="13">
         <f t="shared" si="11"/>
         <v>-0.64543000000000239</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I40" s="13">
         <f t="shared" si="11"/>
         <v>-0.67943999999999782</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J40" s="13">
         <f t="shared" si="11"/>
         <v>-1.2577999999999978</v>
       </c>
-      <c r="K40" s="10">
+      <c r="K40" s="13">
         <f t="shared" si="11"/>
         <v>-0.90276000000000245</v>
       </c>
-      <c r="L40" s="10">
+      <c r="L40" s="13">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
+    <row r="41" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="9">
+      <c r="B41" s="10"/>
+      <c r="C41" s="11">
         <v>1</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="11">
         <v>2</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="11">
         <v>3</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="11">
         <v>4</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="11">
         <v>5</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="11">
         <v>6</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="11">
         <v>7</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J41" s="11">
         <v>8</v>
       </c>
-      <c r="K41" s="9">
+      <c r="K41" s="11">
         <v>9</v>
       </c>
-      <c r="L41" s="9">
+      <c r="L41" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="11">
         <v>1</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="13">
         <f>100*(C16-$C16)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="13">
         <f t="shared" ref="D42:L42" si="12">100*(D16-$C16)</f>
         <v>-0.21978000000000275</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="13">
         <f t="shared" si="12"/>
         <v>5.9839999999999893E-2</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="13">
         <f t="shared" si="12"/>
         <v>-0.97926999999999875</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="13">
         <f t="shared" si="12"/>
         <v>-0.32177999999999929</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="13">
         <f t="shared" si="12"/>
         <v>-1.3769699999999996</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I42" s="13">
         <f t="shared" si="12"/>
         <v>-3.3220899999999998</v>
       </c>
-      <c r="J42" s="10">
+      <c r="J42" s="13">
         <f t="shared" si="12"/>
         <v>-6.0992099999999994</v>
       </c>
-      <c r="K42" s="10">
+      <c r="K42" s="13">
         <f t="shared" si="12"/>
         <v>-1.419769999999998</v>
       </c>
-      <c r="L42" s="10">
+      <c r="L42" s="13">
         <f t="shared" si="12"/>
         <v>-2.6260200000000014</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="11">
         <v>2</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="13">
         <f>100*(C17-$D17)</f>
         <v>-0.8716400000000013</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="13">
         <f t="shared" ref="D43:L43" si="13">100*(D17-$D17)</f>
         <v>0</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="13">
         <f t="shared" si="13"/>
         <v>-0.25394999999999723</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="13">
         <f t="shared" si="13"/>
         <v>-0.95169999999999977</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="13">
         <f t="shared" si="13"/>
         <v>-0.88379000000000096</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H43" s="13">
         <f t="shared" si="13"/>
         <v>-1.182080000000002</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I43" s="13">
         <f t="shared" si="13"/>
         <v>-2.9455300000000015</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J43" s="13">
         <f t="shared" si="13"/>
         <v>-5.8987100000000012</v>
       </c>
-      <c r="K43" s="10">
+      <c r="K43" s="13">
         <f t="shared" si="13"/>
         <v>-1.220549999999998</v>
       </c>
-      <c r="L43" s="10">
+      <c r="L43" s="13">
         <f t="shared" si="13"/>
         <v>-2.4795899999999982</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="11">
         <v>3</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="13">
         <f>100*(C18-$E18)</f>
         <v>-1.2995499999999993</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="13">
         <f t="shared" ref="D44:L44" si="14">100*(D18-$E18)</f>
         <v>-0.67741000000000051</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="13">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="13">
         <f t="shared" si="14"/>
         <v>-1.298100000000002</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G44" s="13">
         <f t="shared" si="14"/>
         <v>-0.64447999999999728</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="13">
         <f t="shared" si="14"/>
         <v>-1.0867899999999986</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I44" s="13">
         <f t="shared" si="14"/>
         <v>-2.491500000000002</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J44" s="13">
         <f t="shared" si="14"/>
         <v>-5.9874299999999989</v>
       </c>
-      <c r="K44" s="10">
+      <c r="K44" s="13">
         <f t="shared" si="14"/>
         <v>-0.83638999999999797</v>
       </c>
-      <c r="L44" s="10">
+      <c r="L44" s="13">
         <f t="shared" si="14"/>
         <v>-2.0345400000000016</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="9">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="11">
         <v>4</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="13">
         <f>100*(C19-$F19)</f>
         <v>-0.8812399999999998</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="13">
         <f t="shared" ref="D45:L45" si="15">100*(D19-$F19)</f>
         <v>0.21032999999999746</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="13">
         <f t="shared" si="15"/>
         <v>-0.24842999999999948</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="13">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G45" s="13">
         <f t="shared" si="15"/>
         <v>-0.34948000000000201</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H45" s="13">
         <f t="shared" si="15"/>
         <v>-8.0200000000002492E-2</v>
       </c>
-      <c r="I45" s="10">
+      <c r="I45" s="13">
         <f t="shared" si="15"/>
         <v>-1.8111700000000008</v>
       </c>
-      <c r="J45" s="10">
+      <c r="J45" s="13">
         <f t="shared" si="15"/>
         <v>-5.0678200000000011</v>
       </c>
-      <c r="K45" s="10">
+      <c r="K45" s="13">
         <f t="shared" si="15"/>
         <v>7.2099999999997166E-2</v>
       </c>
-      <c r="L45" s="10">
+      <c r="L45" s="13">
         <f t="shared" si="15"/>
         <v>-1.55246</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="8"/>
-      <c r="B46" s="9">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+      <c r="B46" s="11">
         <v>5</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="13">
         <f>100*(C20-$G20)</f>
         <v>-0.51289999999999947</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="13">
         <f t="shared" ref="D46:L46" si="16">100*(D20-$G20)</f>
         <v>0.1097500000000029</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="13">
         <f t="shared" si="16"/>
         <v>-7.7159999999998341E-2</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="13">
         <f t="shared" si="16"/>
         <v>-0.40058000000000038</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="13">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H46" s="13">
         <f t="shared" si="16"/>
         <v>1.6270000000001561E-2</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I46" s="13">
         <f t="shared" si="16"/>
         <v>-1.0702600000000007</v>
       </c>
-      <c r="J46" s="10">
+      <c r="J46" s="13">
         <f t="shared" si="16"/>
         <v>-3.8832299999999984</v>
       </c>
-      <c r="K46" s="10">
+      <c r="K46" s="13">
         <f t="shared" si="16"/>
         <v>-4.5359999999999845E-2</v>
       </c>
-      <c r="L46" s="10">
+      <c r="L46" s="13">
         <f t="shared" si="16"/>
         <v>-1.09649</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="8"/>
-      <c r="B47" s="9">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="11">
         <v>6</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="13">
         <f>100*(C21-$H21)</f>
         <v>-1.1964599999999992</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="13">
         <f t="shared" ref="D47:L47" si="17">100*(D21-$H21)</f>
         <v>-0.71041000000000021</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="13">
         <f t="shared" si="17"/>
         <v>-0.91147000000000311</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="13">
         <f t="shared" si="17"/>
         <v>-1.1781700000000006</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="13">
         <f t="shared" si="17"/>
         <v>-0.67145000000000121</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H47" s="13">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I47" s="10">
+      <c r="I47" s="13">
         <f t="shared" si="17"/>
         <v>-0.88398000000000088</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J47" s="13">
         <f t="shared" si="17"/>
         <v>-3.0149099999999986</v>
       </c>
-      <c r="K47" s="10">
+      <c r="K47" s="13">
         <f t="shared" si="17"/>
         <v>-0.92504999999999948</v>
       </c>
-      <c r="L47" s="10">
+      <c r="L47" s="13">
         <f t="shared" si="17"/>
         <v>-0.96958000000000322</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
+      <c r="B48" s="11">
         <v>7</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="13">
         <f>100*(C22-$I22)</f>
         <v>-3.3933199999999997</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="13">
         <f t="shared" ref="D48:L48" si="18">100*(D22-$I22)</f>
         <v>-2.1053799999999958</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="13">
         <f t="shared" si="18"/>
         <v>-2.7142699999999964</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="13">
         <f t="shared" si="18"/>
         <v>-1.5282099999999965</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G48" s="13">
         <f t="shared" si="18"/>
         <v>-1.7489699999999997</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H48" s="13">
         <f t="shared" si="18"/>
         <v>-0.46276999999999568</v>
       </c>
-      <c r="I48" s="10">
+      <c r="I48" s="13">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="J48" s="10">
+      <c r="J48" s="13">
         <f t="shared" si="18"/>
         <v>-2.4346699999999997</v>
       </c>
-      <c r="K48" s="10">
+      <c r="K48" s="13">
         <f t="shared" si="18"/>
         <v>-0.43862999999999541</v>
       </c>
-      <c r="L48" s="10">
+      <c r="L48" s="13">
         <f t="shared" si="18"/>
         <v>-0.7601699999999989</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="8"/>
-      <c r="B49" s="9">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" s="11">
         <v>8</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="13">
         <f>100*(C23-$J23)</f>
         <v>-5.3187800000000003</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="13">
         <f t="shared" ref="D49:L49" si="19">100*(D23-$J23)</f>
         <v>-3.2700000000000005</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="13">
         <f t="shared" si="19"/>
         <v>-3.8918100000000013</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="13">
         <f t="shared" si="19"/>
         <v>-2.731480000000003</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G49" s="13">
         <f t="shared" si="19"/>
         <v>-2.9510099999999984</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H49" s="13">
         <f t="shared" si="19"/>
         <v>-0.6468599999999991</v>
       </c>
-      <c r="I49" s="10">
+      <c r="I49" s="13">
         <f t="shared" si="19"/>
         <v>-6.5280000000000893E-2</v>
       </c>
-      <c r="J49" s="10">
+      <c r="J49" s="13">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="K49" s="10">
+      <c r="K49" s="13">
         <f t="shared" si="19"/>
         <v>-1.0973000000000011</v>
       </c>
-      <c r="L49" s="10">
+      <c r="L49" s="13">
         <f t="shared" si="19"/>
         <v>-0.69171000000000094</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
-      <c r="B50" s="9">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+      <c r="B50" s="11">
         <v>9</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="13">
         <f>100*(C24-$K24)</f>
         <v>-1.9647899999999996</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="13">
         <f t="shared" ref="D50:L50" si="20">100*(D24-$K24)</f>
         <v>-1.2510000000000021</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="13">
         <f t="shared" si="20"/>
         <v>-0.66871000000000014</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="13">
         <f t="shared" si="20"/>
         <v>-0.75477999999999934</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G50" s="13">
         <f t="shared" si="20"/>
         <v>-1.1940100000000009</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H50" s="13">
         <f t="shared" si="20"/>
         <v>-1.319999999999999</v>
       </c>
-      <c r="I50" s="10">
+      <c r="I50" s="13">
         <f t="shared" si="20"/>
         <v>-1.6446899999999987</v>
       </c>
-      <c r="J50" s="10">
+      <c r="J50" s="13">
         <f t="shared" si="20"/>
         <v>-4.9357099999999985</v>
       </c>
-      <c r="K50" s="10">
+      <c r="K50" s="13">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L50" s="10">
+      <c r="L50" s="13">
         <f t="shared" si="20"/>
         <v>-2.1784000000000026</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="8"/>
-      <c r="B51" s="9">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="B51" s="11">
         <v>10</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="13">
         <f>100*(C25-$L25)</f>
         <v>-1.8082299999999996</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="13">
         <f t="shared" ref="D51:L51" si="21">100*(D25-$L25)</f>
         <v>-0.87525999999999993</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="13">
         <f t="shared" si="21"/>
         <v>-0.45938999999999841</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="13">
         <f t="shared" si="21"/>
         <v>-1.2672599999999978</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="13">
         <f t="shared" si="21"/>
         <v>-0.62047000000000074</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H51" s="13">
         <f t="shared" si="21"/>
         <v>0.22104000000000013</v>
       </c>
-      <c r="I51" s="10">
+      <c r="I51" s="13">
         <f t="shared" si="21"/>
         <v>-0.53276999999999908</v>
       </c>
-      <c r="J51" s="10">
+      <c r="J51" s="13">
         <f t="shared" si="21"/>
         <v>-2.4014900000000008</v>
       </c>
-      <c r="K51" s="10">
+      <c r="K51" s="13">
         <f t="shared" si="21"/>
         <v>-0.57767000000000235</v>
       </c>
-      <c r="L51" s="10">
+      <c r="L51" s="13">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
